--- a/数据整理/stocks/其他/COST-开市客.xlsx
+++ b/数据整理/stocks/其他/COST-开市客.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,13 +1167,635 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4589</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3989</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3989</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014978</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3989</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012870</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012871</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>7.89</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/COST-开市客.xlsx
+++ b/数据整理/stocks/其他/COST-开市客.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,661 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000055</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>75.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1153</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270042</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数QDII A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>75.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1153</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006479</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数（QDII）C人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>75.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1153</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006480</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>75.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1153</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>513100</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰纳斯达克100 (QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>41.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7032</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>040046</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数QDII - 人民币</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3884</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>040047</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数QDII - 美元现钞</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.85</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3884</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>040048</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数QDII - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3884</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160213</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰纳斯达克100指数(QDII)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>15.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2668</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000834</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成纳斯达克100指数 (QDII)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2349</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000043</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实美国成长股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>14.64</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2255</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000044</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>14.64</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2255</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>159941</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100ETFQDII</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11.87</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1875</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003722</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1542</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>161130</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1542</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>513300</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏纳斯达克100ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1159</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1742,64 +1146,660 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1153</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7032</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D2" t="n">
-        <v>5.17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.89</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/COST-开市客.xlsx
+++ b/数据整理/stocks/其他/COST-开市客.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>5.17</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>7.89</v>
       </c>
     </row>
@@ -515,6 +532,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8750</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）美元现钞A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4708</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4708</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014978</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013329</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实全球价值股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013328</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实全球价值股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159632</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012871</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012870</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1140,7 +1897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/COST-开市客.xlsx
+++ b/数据整理/stocks/其他/COST-开市客.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5.89</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>5.17</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>7.89</v>
       </c>
     </row>
@@ -532,6 +549,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实全球价值股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013329</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实全球价值股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1271,7 +1458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1897,7 +2084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
